--- a/P3GA3/Cronograma Y Diagrama Hijo/Hoja de Desempeño.xlsx
+++ b/P3GA3/Cronograma Y Diagrama Hijo/Hoja de Desempeño.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Langas\Documents\Laboratorio_GruposD\P3GA3\Cronograma Y Diagrama Hijo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geovani\Desktop\LABORATORIO12MAYO\P3GA3\Cronograma Y Diagrama Hijo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F0CCAB-6CBA-4BB2-872C-D81ADDCDB71A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Enero" sheetId="4" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Marzo" sheetId="7" r:id="rId3"/>
     <sheet name="Abril" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -128,7 +127,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
@@ -780,7 +779,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -826,6 +825,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -880,7 +880,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-EEE6-4E66-A2B9-B018BFF7E671}"/>
                 </c:ext>
@@ -913,13 +915,13 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -931,7 +933,7 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -973,7 +975,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-EEE6-4E66-A2B9-B018BFF7E671}"/>
                 </c:ext>
@@ -1006,13 +1010,13 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1024,7 +1028,7 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1066,7 +1070,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-EEE6-4E66-A2B9-B018BFF7E671}"/>
                 </c:ext>
@@ -1099,13 +1105,13 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1117,7 +1123,7 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1159,7 +1165,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-EEE6-4E66-A2B9-B018BFF7E671}"/>
                 </c:ext>
@@ -1192,13 +1200,13 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1252,7 +1260,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-EEE6-4E66-A2B9-B018BFF7E671}"/>
                 </c:ext>
@@ -1285,13 +1295,13 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1336,13 +1346,13 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1413,6 +1423,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6648,6 +6659,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6689,7 +6701,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -6719,16 +6733,16 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6752,6 +6766,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -11462,6 +11477,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11503,7 +11519,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -11563,6 +11581,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11607,6 +11626,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11648,7 +11668,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -11675,16 +11697,16 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11708,6 +11730,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11752,6 +11775,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11793,7 +11817,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -11856,6 +11882,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11900,6 +11927,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11941,7 +11969,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -12001,6 +12031,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -12045,6 +12076,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -12086,7 +12118,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:val>
@@ -12096,16 +12130,16 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12129,6 +12163,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -24774,23 +24809,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -24826,23 +24844,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -25018,11 +25019,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="AH12" sqref="AH12"/>
+      <selection activeCell="AJ8" sqref="AJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25211,14 +25212,14 @@
         <v>25</v>
       </c>
       <c r="B4" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
       <c r="F4" s="15">
         <f t="shared" ref="F4:F7" si="0">AVERAGE(B4:E4)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="8">
         <v>8</v>
@@ -25231,14 +25232,14 @@
         <v>8</v>
       </c>
       <c r="L4" s="9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="13">
         <f>AVERAGE(L4:O4)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q4" s="29">
         <v>9</v>
@@ -25262,7 +25263,7 @@
       </c>
       <c r="AA4" s="11">
         <f t="shared" ref="AA4" si="1">+F4</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB4" s="34">
         <f>+K4</f>
@@ -25270,7 +25271,7 @@
       </c>
       <c r="AC4" s="34">
         <f>+P4</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AD4" s="34">
         <f>+U4</f>
@@ -25282,7 +25283,7 @@
       </c>
       <c r="AF4" s="21">
         <f t="shared" ref="AF4:AF5" si="2">AVERAGE(AA4:AE4)</f>
-        <v>8</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="5" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -25290,14 +25291,14 @@
         <v>26</v>
       </c>
       <c r="B5" s="12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="16">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" s="8">
         <v>8</v>
@@ -25310,14 +25311,14 @@
         <v>8</v>
       </c>
       <c r="L5" s="9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="13">
         <f t="shared" ref="P5" si="3">AVERAGE(L5:O5)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q5" s="29">
         <v>9</v>
@@ -25341,7 +25342,7 @@
       </c>
       <c r="AA5" s="5">
         <f>+F5</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB5" s="34">
         <f t="shared" ref="AB5:AB7" si="6">+K5</f>
@@ -25349,7 +25350,7 @@
       </c>
       <c r="AC5" s="34">
         <f t="shared" ref="AC5:AC7" si="7">+P5</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AD5" s="34">
         <f t="shared" ref="AD5:AD7" si="8">+U5</f>
@@ -25361,7 +25362,7 @@
       </c>
       <c r="AF5" s="22">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -25369,14 +25370,14 @@
         <v>27</v>
       </c>
       <c r="B6" s="12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="16">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" s="8">
         <v>8</v>
@@ -25389,14 +25390,14 @@
         <v>8</v>
       </c>
       <c r="L6" s="9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="13">
         <f>AVERAGE(L6:O6)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q6" s="29">
         <v>9</v>
@@ -25420,7 +25421,7 @@
       </c>
       <c r="AA6" s="5">
         <f>+F6</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB6" s="34">
         <f t="shared" si="6"/>
@@ -25428,7 +25429,7 @@
       </c>
       <c r="AC6" s="34">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AD6" s="34">
         <f t="shared" si="8"/>
@@ -25440,7 +25441,7 @@
       </c>
       <c r="AF6" s="22">
         <f>AVERAGE(AA6:AE6)</f>
-        <v>8</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -25448,14 +25449,14 @@
         <v>28</v>
       </c>
       <c r="B7" s="56">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="56"/>
       <c r="D7" s="56"/>
       <c r="E7" s="56"/>
       <c r="F7" s="16">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7" s="57">
         <v>8</v>
@@ -25468,14 +25469,14 @@
         <v>8</v>
       </c>
       <c r="L7" s="58">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M7" s="58"/>
       <c r="N7" s="58"/>
       <c r="O7" s="58"/>
       <c r="P7" s="13">
         <f>AVERAGE(L7:O7)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q7" s="59">
         <v>9</v>
@@ -25499,7 +25500,7 @@
       </c>
       <c r="AA7" s="5">
         <f>+F7</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB7" s="34">
         <f t="shared" si="6"/>
@@ -25507,7 +25508,7 @@
       </c>
       <c r="AC7" s="34">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AD7" s="34">
         <f t="shared" si="8"/>
@@ -25519,7 +25520,7 @@
       </c>
       <c r="AF7" s="22">
         <f>AVERAGE(AA7:AE7)</f>
-        <v>8</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="8" spans="1:33" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -25553,7 +25554,7 @@
       <c r="Z8" s="26"/>
       <c r="AA8" s="36">
         <f>AVERAGE(AA4:AA7)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB8" s="37">
         <f>AVERAGE(AB4:AB7)</f>
@@ -25561,7 +25562,7 @@
       </c>
       <c r="AC8" s="37">
         <f>AVERAGE(AC4:AC7)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AD8" s="37">
         <f>AVERAGE(AD4:AD7)</f>
@@ -25573,7 +25574,7 @@
       </c>
       <c r="AF8" s="33">
         <f>AVERAGE(AA8:AE8)</f>
-        <v>8</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
@@ -25606,7 +25607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -26512,17 +26513,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="L1:P2"/>
+    <mergeCell ref="Q1:U2"/>
+    <mergeCell ref="V1:Z2"/>
     <mergeCell ref="AF2:AF3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="AB2:AB3"/>
     <mergeCell ref="AC2:AC3"/>
     <mergeCell ref="AD2:AD3"/>
     <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="L1:P2"/>
-    <mergeCell ref="Q1:U2"/>
-    <mergeCell ref="V1:Z2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -26536,7 +26537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -27382,17 +27383,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="B1:F2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="L1:P2"/>
     <mergeCell ref="Q1:U2"/>
     <mergeCell ref="V1:Z2"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -27401,7 +27402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
@@ -28247,17 +28248,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="B1:F2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="L1:P2"/>
     <mergeCell ref="Q1:U2"/>
     <mergeCell ref="V1:Z2"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
